--- a/biology/Botanique/Tillandsia_racinae/Tillandsia_racinae.xlsx
+++ b/biology/Botanique/Tillandsia_racinae/Tillandsia_racinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia racinae L.B.Sm. est une plante de la famille des Bromeliaceae.
 Le terme racinae, « de Racine », est une dédicace à Racine Foster, épouse de Mulford B. Foster et co-collectrice avec celui-ci de la plante.
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia racinae L.B.Sm., in Contr. U.S. Natl. Herb. 29: 439, fig. 44a-d (1951)
-Diagnose originale[1] :
+Diagnose originale :
 « T. fasciculata Swartz atque T. dugesii Baker in systema Mezii proxima sed vix affinis, spicis maxime elongatis, subteretibus, plurifloris, bracteis florigeris sepalisque ecarinatis differt. »
 Type :
-leg. M.B. &amp; R. Foster, n° 1885, 1946-10-13 ; « on cliffs, Rio Icononzo, Department of Tolima, Colombia, altitude 900 meters »[1] ; Holotypus (1/3) GH (Gray Herbarium) (GH 29444)
+leg. M.B. &amp; R. Foster, n° 1885, 1946-10-13 ; « on cliffs, Rio Icononzo, Department of Tolima, Colombia, altitude 900 meters » ; Holotypus (1/3) GH (Gray Herbarium) (GH 29444)
 leg. M.B. &amp; R. Foster, n° 1885, 1946-10-13 ; « on cliffs, Rio Icononzo, Department of Tolima, Colombia, altitude 900 meters » ; Holotypus (2/3) GH (Gray Herbarium) (GH 29445)
 leg. M.B. &amp; R. Foster, n° 1885, 1946-10-13 ; « on cliffs, Rio Icononzo, Department of Tolima, Colombia, altitude 900 meters » ; Holotypus (3/3) GH (Gray Herbarium) (GH 29446)
 leg. M.B. &amp; R. Foster, n° 1885, 1946-10-13 ; « Colombia. Tolima: cliffs, Rio Icononzo. 3000 ft. [914 m] » ; Isotypus (1/3) US National Herbarium (US 00091085)
@@ -551,7 +565,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -582,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,11 +625,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux ; saxicole[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux ; saxicole.
 Habitat : ?
-Altitude : 900 m[1].</t>
+Altitude : 900 m.</t>
         </is>
       </c>
     </row>
@@ -639,11 +659,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Colombie
-Tolima[1]</t>
+Tolima</t>
         </is>
       </c>
     </row>
@@ -671,9 +693,11 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia racinae semble extrêmement rare en culture. Néanmoins on trouve dans Roguenant 2001[2] la photo d'une plante en culture sous ce nom, mais non fleurie et sans autre indication quant à la validité de son identification, son origine et sa culture.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia racinae semble extrêmement rare en culture. Néanmoins on trouve dans Roguenant 2001 la photo d'une plante en culture sous ce nom, mais non fleurie et sans autre indication quant à la validité de son identification, son origine et sa culture.
 </t>
         </is>
       </c>
